--- a/classfiers/greedy/multinomialNB/greedy-multinomialNB-results.xlsx
+++ b/classfiers/greedy/multinomialNB/greedy-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9673913043478262</v>
+        <v>0.575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6260032102728732</v>
+        <v>0.1967613132209405</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9673913043478262</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9239130434782609</v>
+        <v>0.5457692307692308</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5319942611190818</v>
+        <v>0.4428945074106364</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9239130434782609</v>
+        <v>0.5457692307692308</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05797101449275362</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8580786026200873</v>
+        <v>0.7537688442211055</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4720973195301335</v>
+        <v>0.441505376344086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8580786026200873</v>
+        <v>0.7537688442211055</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4526928675400291</v>
+        <v>0.835</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3716823746073015</v>
+        <v>0.5345309381237526</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4526928675400291</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0145985401459854</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5385735080058224</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3044091710758378</v>
+        <v>0.4903846153846153</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5385735080058224</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06565691996549368</v>
+        <v>0.1094872609876174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7481298651984051</v>
+        <v>0.7019076149980672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4612372673210455</v>
+        <v>0.4212153500968062</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7481298651984051</v>
+        <v>0.7019076149980672</v>
       </c>
     </row>
   </sheetData>
